--- a/Dataframes Excel (.xlsx)/brad1.xlsx
+++ b/Dataframes Excel (.xlsx)/brad1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\VirtualBox VMs\SciViews Box 2020\shared\projects\TP-Bioch-BAB2-Q1\Dataframes Excel (.xlsx)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B741AEC-FC35-4ACE-B54A-8EC751011DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552CABB-8487-4C2A-996F-3EB782C2646C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{2D845E35-5265-4FEA-AA1A-06CD67E70E09}"/>
+    <workbookView xWindow="5070" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{2D845E35-5265-4FEA-AA1A-06CD67E70E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Tube n°</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>D.O. à 595 nm - blanc</t>
+  </si>
+  <si>
+    <t>0.005 NEG</t>
+  </si>
+  <si>
+    <t>0.013 NEG</t>
   </si>
 </sst>
 </file>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE2BC35-EA30-4B27-897F-0C7AE16E1ADF}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +603,9 @@
         <v>4</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
@@ -605,11 +613,15 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
     </row>
@@ -617,11 +629,15 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>2E-3</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
@@ -639,7 +655,9 @@
         <v>4</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
     </row>
@@ -647,11 +665,15 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1"/>
     </row>
@@ -659,11 +681,15 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>1E-3</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
     </row>
@@ -681,7 +707,9 @@
         <v>4</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
@@ -689,11 +717,15 @@
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>20</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1"/>
     </row>
@@ -701,11 +733,15 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
     </row>
@@ -731,7 +767,9 @@
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>50</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -743,7 +781,9 @@
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>50</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -773,7 +813,9 @@
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>80</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="9"/>
@@ -785,7 +827,9 @@
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>80</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="9"/>
@@ -815,7 +859,9 @@
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -827,7 +873,9 @@
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10">
+        <v>100</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
